--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S10/S10_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S10/S10_lossmod.xlsx
@@ -14,192 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.012178665172955891</t>
-  </si>
-  <si>
-    <t>0.017407446257732648</t>
-  </si>
-  <si>
-    <t>0.0248841010143313</t>
-  </si>
-  <si>
-    <t>0.03556918285926896</t>
-  </si>
-  <si>
-    <t>0.05003431627207941</t>
-  </si>
-  <si>
-    <t>0.07036748381560086</t>
-  </si>
-  <si>
-    <t>0.10059974907920519</t>
-  </si>
-  <si>
-    <t>0.14384367604471454</t>
-  </si>
-  <si>
-    <t>0.23416625900454993</t>
-  </si>
-  <si>
-    <t>0.33484044308386074</t>
-  </si>
-  <si>
-    <t>0.4787883917397543</t>
-  </si>
-  <si>
-    <t>0.6847252536454788</t>
-  </si>
-  <si>
-    <t>0.9793509854096855</t>
-  </si>
-  <si>
-    <t>1.3782834034031333</t>
-  </si>
-  <si>
-    <t>2.0615930240550817</t>
-  </si>
-  <si>
-    <t>2.866359069955638</t>
-  </si>
-  <si>
-    <t>4.10128722041288</t>
-  </si>
-  <si>
-    <t>5.86879857921654</t>
-  </si>
-  <si>
-    <t>8.39751182708123</t>
-  </si>
-  <si>
-    <t>12.020037311457958</t>
-  </si>
-  <si>
-    <t>17.203376453715777</t>
-  </si>
-  <si>
-    <t>23.83666672289998</t>
-  </si>
-  <si>
-    <t>34.90590454024128</t>
-  </si>
-  <si>
-    <t>50.45805722807903</t>
-  </si>
-  <si>
-    <t>72.23846629673824</t>
-  </si>
-  <si>
-    <t>103.42140931570054</t>
-  </si>
-  <si>
-    <t>148.07036869560974</t>
-  </si>
-  <si>
-    <t>212.01051790827358</t>
-  </si>
-  <si>
-    <t>303.55320840352636</t>
-  </si>
-  <si>
-    <t>434.6620027842836</t>
-  </si>
-  <si>
-    <t>58.06559519568483</t>
-  </si>
-  <si>
-    <t>85.37547640660637</t>
-  </si>
-  <si>
-    <t>122.69581957481951</t>
-  </si>
-  <si>
-    <t>179.08376389961472</t>
-  </si>
-  <si>
-    <t>246.3909565920532</t>
-  </si>
-  <si>
-    <t>352.7961767215801</t>
-  </si>
-  <si>
-    <t>498.55005909701134</t>
-  </si>
-  <si>
-    <t>683.2995441638733</t>
-  </si>
-  <si>
-    <t>1112.9643353395772</t>
-  </si>
-  <si>
-    <t>1512.1281358740791</t>
-  </si>
-  <si>
-    <t>2061.6452883610086</t>
-  </si>
-  <si>
-    <t>2728.5772604206613</t>
-  </si>
-  <si>
-    <t>3533.2228812140806</t>
-  </si>
-  <si>
-    <t>4436.791860301857</t>
-  </si>
-  <si>
-    <t>5895.428614010963</t>
-  </si>
-  <si>
-    <t>7254.162698207894</t>
-  </si>
-  <si>
-    <t>8720.963440346037</t>
-  </si>
-  <si>
-    <t>10302.713315225883</t>
-  </si>
-  <si>
-    <t>12321.165238140577</t>
-  </si>
-  <si>
-    <t>13764.19613081412</t>
-  </si>
-  <si>
-    <t>15702.107723678802</t>
-  </si>
-  <si>
-    <t>17088.949153984173</t>
-  </si>
-  <si>
-    <t>19340.895859344644</t>
-  </si>
-  <si>
-    <t>21398.736549812867</t>
-  </si>
-  <si>
-    <t>23043.484475125224</t>
-  </si>
-  <si>
-    <t>24771.320988728705</t>
-  </si>
-  <si>
-    <t>26443.20996349324</t>
-  </si>
-  <si>
-    <t>27836.02129573218</t>
-  </si>
-  <si>
-    <t>29456.229452886582</t>
-  </si>
-  <si>
-    <t>30630.71423247562</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -572,243 +392,243 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="A2">
+        <v>0.01217866517295589</v>
+      </c>
+      <c r="B2">
+        <v>58.06559519568483</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="A3">
+        <v>0.01740744625773265</v>
+      </c>
+      <c r="B3">
+        <v>85.37547640660637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
+      <c r="A4">
+        <v>0.0248841010143313</v>
+      </c>
+      <c r="B4">
+        <v>122.6958195748195</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
+      <c r="A5">
+        <v>0.03556918285926896</v>
+      </c>
+      <c r="B5">
+        <v>179.0837638996147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+      <c r="A6">
+        <v>0.05003431627207941</v>
+      </c>
+      <c r="B6">
+        <v>246.3909565920532</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
+      <c r="A7">
+        <v>0.07036748381560086</v>
+      </c>
+      <c r="B7">
+        <v>352.7961767215801</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
+      <c r="A8">
+        <v>0.1005997490792052</v>
+      </c>
+      <c r="B8">
+        <v>498.5500590970113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
+      <c r="A9">
+        <v>0.1438436760447145</v>
+      </c>
+      <c r="B9">
+        <v>683.2995441638733</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
+      <c r="A10">
+        <v>0.2341662590045499</v>
+      </c>
+      <c r="B10">
+        <v>1112.964335339577</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
+      <c r="A11">
+        <v>0.3348404430838607</v>
+      </c>
+      <c r="B11">
+        <v>1512.128135874079</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
+      <c r="A12">
+        <v>0.4787883917397543</v>
+      </c>
+      <c r="B12">
+        <v>2061.645288361009</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
+      <c r="A13">
+        <v>0.6847252536454788</v>
+      </c>
+      <c r="B13">
+        <v>2728.577260420661</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
+      <c r="A14">
+        <v>0.9793509854096855</v>
+      </c>
+      <c r="B14">
+        <v>3533.222881214081</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
+      <c r="A15">
+        <v>1.378283403403133</v>
+      </c>
+      <c r="B15">
+        <v>4436.791860301857</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
+      <c r="A16">
+        <v>2.061593024055082</v>
+      </c>
+      <c r="B16">
+        <v>5895.428614010963</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
+      <c r="A17">
+        <v>2.866359069955638</v>
+      </c>
+      <c r="B17">
+        <v>7254.162698207894</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
+      <c r="A18">
+        <v>4.10128722041288</v>
+      </c>
+      <c r="B18">
+        <v>8720.963440346037</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
+      <c r="A19">
+        <v>5.86879857921654</v>
+      </c>
+      <c r="B19">
+        <v>10302.71331522588</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
+      <c r="A20">
+        <v>8.39751182708123</v>
+      </c>
+      <c r="B20">
+        <v>12321.16523814058</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
+      <c r="A21">
+        <v>12.02003731145796</v>
+      </c>
+      <c r="B21">
+        <v>13764.19613081412</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
+      <c r="A22">
+        <v>17.20337645371578</v>
+      </c>
+      <c r="B22">
+        <v>15702.1077236788</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
+      <c r="A23">
+        <v>23.83666672289998</v>
+      </c>
+      <c r="B23">
+        <v>17088.94915398417</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
+      <c r="A24">
+        <v>34.90590454024128</v>
+      </c>
+      <c r="B24">
+        <v>19340.89585934464</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
+      <c r="A25">
+        <v>50.45805722807903</v>
+      </c>
+      <c r="B25">
+        <v>21398.73654981287</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
+      <c r="A26">
+        <v>72.23846629673824</v>
+      </c>
+      <c r="B26">
+        <v>23043.48447512522</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
+      <c r="A27">
+        <v>103.4214093157005</v>
+      </c>
+      <c r="B27">
+        <v>24771.3209887287</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
+      <c r="A28">
+        <v>148.0703686956097</v>
+      </c>
+      <c r="B28">
+        <v>26443.20996349324</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
+      <c r="A29">
+        <v>212.0105179082736</v>
+      </c>
+      <c r="B29">
+        <v>27836.02129573218</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
+      <c r="A30">
+        <v>303.5532084035264</v>
+      </c>
+      <c r="B30">
+        <v>29456.22945288658</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
+      <c r="A31">
+        <v>434.6620027842836</v>
+      </c>
+      <c r="B31">
+        <v>30630.71423247562</v>
       </c>
     </row>
   </sheetData>
